--- a/Testing/Risultati/benchmark_results_bar_2_output.xlsx
+++ b/Testing/Risultati/benchmark_results_bar_2_output.xlsx
@@ -7,16 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Benchmark Data" r:id="rId3" sheetId="1"/>
+    <sheet name="Memory Usage Data" r:id="rId4" sheetId="2"/>
+    <sheet name="Average Memory Usage" r:id="rId6" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="385">
   <si>
     <t>Benchmark</t>
   </si>
   <si>
+    <t>GProfile</t>
+  </si>
+  <si>
     <t>Mode</t>
   </si>
   <si>
@@ -35,6 +40,9 @@
     <t>LevenshteinBenchmark.benchBuildDfaDistance1NoTranspose</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>thrpt</t>
   </si>
   <si>
@@ -50,6 +58,66 @@
     <t>ops/s</t>
   </si>
   <si>
+    <t>gc.alloc.rate</t>
+  </si>
+  <si>
+    <t>5843,225</t>
+  </si>
+  <si>
+    <t>80,760</t>
+  </si>
+  <si>
+    <t>MB/sec</t>
+  </si>
+  <si>
+    <t>gc.alloc.rate.norm</t>
+  </si>
+  <si>
+    <t>57534,178</t>
+  </si>
+  <si>
+    <t>0,185</t>
+  </si>
+  <si>
+    <t>B/op</t>
+  </si>
+  <si>
+    <t>gc.churn.G1_Eden_Space</t>
+  </si>
+  <si>
+    <t>5849,912</t>
+  </si>
+  <si>
+    <t>97,419</t>
+  </si>
+  <si>
+    <t>gc.churn.G1_Eden_Space.norm</t>
+  </si>
+  <si>
+    <t>57599,909</t>
+  </si>
+  <si>
+    <t>217,112</t>
+  </si>
+  <si>
+    <t>gc.churn.G1_Survivor_Space</t>
+  </si>
+  <si>
+    <t>0,162</t>
+  </si>
+  <si>
+    <t>0,038</t>
+  </si>
+  <si>
+    <t>gc.churn.G1_Survivor_Space.norm</t>
+  </si>
+  <si>
+    <t>1,598</t>
+  </si>
+  <si>
+    <t>0,366</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance1WithHamming</t>
   </si>
   <si>
@@ -59,6 +127,42 @@
     <t>1597,108</t>
   </si>
   <si>
+    <t>5875,934</t>
+  </si>
+  <si>
+    <t>79,978</t>
+  </si>
+  <si>
+    <t>57534,087</t>
+  </si>
+  <si>
+    <t>0,112</t>
+  </si>
+  <si>
+    <t>5878,462</t>
+  </si>
+  <si>
+    <t>73,017</t>
+  </si>
+  <si>
+    <t>57559,051</t>
+  </si>
+  <si>
+    <t>592,536</t>
+  </si>
+  <si>
+    <t>0,171</t>
+  </si>
+  <si>
+    <t>0,024</t>
+  </si>
+  <si>
+    <t>1,675</t>
+  </si>
+  <si>
+    <t>0,246</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTouzet</t>
   </si>
   <si>
@@ -68,6 +172,42 @@
     <t>785,527</t>
   </si>
   <si>
+    <t>5883,576</t>
+  </si>
+  <si>
+    <t>44,600</t>
+  </si>
+  <si>
+    <t>57534,042</t>
+  </si>
+  <si>
+    <t>0,167</t>
+  </si>
+  <si>
+    <t>5886,809</t>
+  </si>
+  <si>
+    <t>129,946</t>
+  </si>
+  <si>
+    <t>57565,358</t>
+  </si>
+  <si>
+    <t>885,315</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>0,020</t>
+  </si>
+  <si>
+    <t>1,789</t>
+  </si>
+  <si>
+    <t>0,181</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTranspose</t>
   </si>
   <si>
@@ -77,6 +217,42 @@
     <t>1909,665</t>
   </si>
   <si>
+    <t>5874,978</t>
+  </si>
+  <si>
+    <t>95,515</t>
+  </si>
+  <si>
+    <t>57534,024</t>
+  </si>
+  <si>
+    <t>0,142</t>
+  </si>
+  <si>
+    <t>5885,568</t>
+  </si>
+  <si>
+    <t>134,237</t>
+  </si>
+  <si>
+    <t>57637,482</t>
+  </si>
+  <si>
+    <t>572,666</t>
+  </si>
+  <si>
+    <t>0,177</t>
+  </si>
+  <si>
+    <t>0,016</t>
+  </si>
+  <si>
+    <t>1,738</t>
+  </si>
+  <si>
+    <t>0,157</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance2NoTranspose</t>
   </si>
   <si>
@@ -86,6 +262,39 @@
     <t>1629,454</t>
   </si>
   <si>
+    <t>5902,018</t>
+  </si>
+  <si>
+    <t>89,127</t>
+  </si>
+  <si>
+    <t>57533,968</t>
+  </si>
+  <si>
+    <t>0,191</t>
+  </si>
+  <si>
+    <t>5907,499</t>
+  </si>
+  <si>
+    <t>105,208</t>
+  </si>
+  <si>
+    <t>57587,338</t>
+  </si>
+  <si>
+    <t>414,798</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>0,019</t>
+  </si>
+  <si>
+    <t>1,657</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTouzet</t>
   </si>
   <si>
@@ -95,6 +304,42 @@
     <t>1022,262</t>
   </si>
   <si>
+    <t>5898,981</t>
+  </si>
+  <si>
+    <t>59,968</t>
+  </si>
+  <si>
+    <t>57534,051</t>
+  </si>
+  <si>
+    <t>0,175</t>
+  </si>
+  <si>
+    <t>5910,031</t>
+  </si>
+  <si>
+    <t>18,788</t>
+  </si>
+  <si>
+    <t>57642,109</t>
+  </si>
+  <si>
+    <t>548,156</t>
+  </si>
+  <si>
+    <t>0,120</t>
+  </si>
+  <si>
+    <t>0,017</t>
+  </si>
+  <si>
+    <t>1,172</t>
+  </si>
+  <si>
+    <t>0,164</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTranspose</t>
   </si>
   <si>
@@ -104,6 +349,42 @@
     <t>963,948</t>
   </si>
   <si>
+    <t>5866,395</t>
+  </si>
+  <si>
+    <t>54,031</t>
+  </si>
+  <si>
+    <t>57534,109</t>
+  </si>
+  <si>
+    <t>0,124</t>
+  </si>
+  <si>
+    <t>5876,165</t>
+  </si>
+  <si>
+    <t>91,537</t>
+  </si>
+  <si>
+    <t>57630,088</t>
+  </si>
+  <si>
+    <t>931,259</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t>0,029</t>
+  </si>
+  <si>
+    <t>0,614</t>
+  </si>
+  <si>
+    <t>0,291</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance3NoTranspose</t>
   </si>
   <si>
@@ -113,6 +394,42 @@
     <t>1303,939</t>
   </si>
   <si>
+    <t>5820,243</t>
+  </si>
+  <si>
+    <t>69,146</t>
+  </si>
+  <si>
+    <t>57518,094</t>
+  </si>
+  <si>
+    <t>0,151</t>
+  </si>
+  <si>
+    <t>5835,398</t>
+  </si>
+  <si>
+    <t>129,291</t>
+  </si>
+  <si>
+    <t>57667,617</t>
+  </si>
+  <si>
+    <t>805,040</t>
+  </si>
+  <si>
+    <t>0,121</t>
+  </si>
+  <si>
+    <t>0,046</t>
+  </si>
+  <si>
+    <t>1,198</t>
+  </si>
+  <si>
+    <t>0,456</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTouzet</t>
   </si>
   <si>
@@ -122,6 +439,42 @@
     <t>1417,558</t>
   </si>
   <si>
+    <t>5843,679</t>
+  </si>
+  <si>
+    <t>83,396</t>
+  </si>
+  <si>
+    <t>57534,221</t>
+  </si>
+  <si>
+    <t>0,140</t>
+  </si>
+  <si>
+    <t>5853,524</t>
+  </si>
+  <si>
+    <t>80,869</t>
+  </si>
+  <si>
+    <t>57631,305</t>
+  </si>
+  <si>
+    <t>544,373</t>
+  </si>
+  <si>
+    <t>0,064</t>
+  </si>
+  <si>
+    <t>0,043</t>
+  </si>
+  <si>
+    <t>0,625</t>
+  </si>
+  <si>
+    <t>0,429</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTranspose</t>
   </si>
   <si>
@@ -131,6 +484,36 @@
     <t>1833,761</t>
   </si>
   <si>
+    <t>5865,669</t>
+  </si>
+  <si>
+    <t>100,408</t>
+  </si>
+  <si>
+    <t>57534,111</t>
+  </si>
+  <si>
+    <t>5878,356</t>
+  </si>
+  <si>
+    <t>87,130</t>
+  </si>
+  <si>
+    <t>57658,861</t>
+  </si>
+  <si>
+    <t>649,869</t>
+  </si>
+  <si>
+    <t>0,032</t>
+  </si>
+  <si>
+    <t>0,623</t>
+  </si>
+  <si>
+    <t>0,316</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance4NoTranspose</t>
   </si>
   <si>
@@ -140,6 +523,36 @@
     <t>1611,773</t>
   </si>
   <si>
+    <t>5848,778</t>
+  </si>
+  <si>
+    <t>85,183</t>
+  </si>
+  <si>
+    <t>57534,278</t>
+  </si>
+  <si>
+    <t>5853,944</t>
+  </si>
+  <si>
+    <t>123,121</t>
+  </si>
+  <si>
+    <t>57584,950</t>
+  </si>
+  <si>
+    <t>663,478</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>1,868</t>
+  </si>
+  <si>
+    <t>0,268</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTouzet</t>
   </si>
   <si>
@@ -149,6 +562,39 @@
     <t>590,047</t>
   </si>
   <si>
+    <t>5858,847</t>
+  </si>
+  <si>
+    <t>27,930</t>
+  </si>
+  <si>
+    <t>57534,031</t>
+  </si>
+  <si>
+    <t>0,176</t>
+  </si>
+  <si>
+    <t>5867,185</t>
+  </si>
+  <si>
+    <t>107,992</t>
+  </si>
+  <si>
+    <t>57615,766</t>
+  </si>
+  <si>
+    <t>865,465</t>
+  </si>
+  <si>
+    <t>0,174</t>
+  </si>
+  <si>
+    <t>1,713</t>
+  </si>
+  <si>
+    <t>0,178</t>
+  </si>
+  <si>
     <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTranspose</t>
   </si>
   <si>
@@ -156,6 +602,573 @@
   </si>
   <si>
     <t>1307,207</t>
+  </si>
+  <si>
+    <t>5883,053</t>
+  </si>
+  <si>
+    <t>65,599</t>
+  </si>
+  <si>
+    <t>57534,043</t>
+  </si>
+  <si>
+    <t>0,168</t>
+  </si>
+  <si>
+    <t>5886,696</t>
+  </si>
+  <si>
+    <t>77,082</t>
+  </si>
+  <si>
+    <t>57569,672</t>
+  </si>
+  <si>
+    <t>396,834</t>
+  </si>
+  <si>
+    <t>0,015</t>
+  </si>
+  <si>
+    <t>1,805</t>
+  </si>
+  <si>
+    <t>0,134</t>
+  </si>
+  <si>
+    <t>Memory Used (bytes)</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance1NoTranspose</t>
+  </si>
+  <si>
+    <t>27583728</t>
+  </si>
+  <si>
+    <t>21403104</t>
+  </si>
+  <si>
+    <t>52737216</t>
+  </si>
+  <si>
+    <t>-102464160</t>
+  </si>
+  <si>
+    <t>182765968</t>
+  </si>
+  <si>
+    <t>-58449808</t>
+  </si>
+  <si>
+    <t>38035248</t>
+  </si>
+  <si>
+    <t>-56307808</t>
+  </si>
+  <si>
+    <t>-144429760</t>
+  </si>
+  <si>
+    <t>96771680</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance1WithHamming</t>
+  </si>
+  <si>
+    <t>46535008</t>
+  </si>
+  <si>
+    <t>252054592</t>
+  </si>
+  <si>
+    <t>-259734496</t>
+  </si>
+  <si>
+    <t>-3905744</t>
+  </si>
+  <si>
+    <t>-62607952</t>
+  </si>
+  <si>
+    <t>14979456</t>
+  </si>
+  <si>
+    <t>111412352</t>
+  </si>
+  <si>
+    <t>-52109440</t>
+  </si>
+  <si>
+    <t>-29085664</t>
+  </si>
+  <si>
+    <t>168030432</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance1WithTouzet</t>
+  </si>
+  <si>
+    <t>-6315680</t>
+  </si>
+  <si>
+    <t>235325424</t>
+  </si>
+  <si>
+    <t>23392480</t>
+  </si>
+  <si>
+    <t>-259774528</t>
+  </si>
+  <si>
+    <t>142894000</t>
+  </si>
+  <si>
+    <t>-39517168</t>
+  </si>
+  <si>
+    <t>-8094144</t>
+  </si>
+  <si>
+    <t>-22790080</t>
+  </si>
+  <si>
+    <t>8676128</t>
+  </si>
+  <si>
+    <t>-22811904</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance1WithTranspose</t>
+  </si>
+  <si>
+    <t>327141712</t>
+  </si>
+  <si>
+    <t>-251256752</t>
+  </si>
+  <si>
+    <t>63244160</t>
+  </si>
+  <si>
+    <t>-144387440</t>
+  </si>
+  <si>
+    <t>-20675248</t>
+  </si>
+  <si>
+    <t>180655312</t>
+  </si>
+  <si>
+    <t>168076496</t>
+  </si>
+  <si>
+    <t>-337384064</t>
+  </si>
+  <si>
+    <t>237278384</t>
+  </si>
+  <si>
+    <t>46451520</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance2NoTranspose</t>
+  </si>
+  <si>
+    <t>38058176</t>
+  </si>
+  <si>
+    <t>247909104</t>
+  </si>
+  <si>
+    <t>-136022960</t>
+  </si>
+  <si>
+    <t>48579840</t>
+  </si>
+  <si>
+    <t>-119254304</t>
+  </si>
+  <si>
+    <t>4499744</t>
+  </si>
+  <si>
+    <t>79979296</t>
+  </si>
+  <si>
+    <t>-182153152</t>
+  </si>
+  <si>
+    <t>155472608</t>
+  </si>
+  <si>
+    <t>-22766896</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance2WithHamming</t>
+  </si>
+  <si>
+    <t>186652592</t>
+  </si>
+  <si>
+    <t>-127525904</t>
+  </si>
+  <si>
+    <t>142970176</t>
+  </si>
+  <si>
+    <t>100956672</t>
+  </si>
+  <si>
+    <t>-255587120</t>
+  </si>
+  <si>
+    <t>-37417584</t>
+  </si>
+  <si>
+    <t>230981120</t>
+  </si>
+  <si>
+    <t>50575840</t>
+  </si>
+  <si>
+    <t>-335230432</t>
+  </si>
+  <si>
+    <t>298080096</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance2WithTouzet</t>
+  </si>
+  <si>
+    <t>48219184</t>
+  </si>
+  <si>
+    <t>59184512</t>
+  </si>
+  <si>
+    <t>-106637952</t>
+  </si>
+  <si>
+    <t>107239152</t>
+  </si>
+  <si>
+    <t>48567472</t>
+  </si>
+  <si>
+    <t>-159110896</t>
+  </si>
+  <si>
+    <t>237234064</t>
+  </si>
+  <si>
+    <t>59050832</t>
+  </si>
+  <si>
+    <t>2380176</t>
+  </si>
+  <si>
+    <t>-238803952</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance2WithTranspose</t>
+  </si>
+  <si>
+    <t>251999232</t>
+  </si>
+  <si>
+    <t>-207199664</t>
+  </si>
+  <si>
+    <t>119863632</t>
+  </si>
+  <si>
+    <t>142894544</t>
+  </si>
+  <si>
+    <t>-20670544</t>
+  </si>
+  <si>
+    <t>-251372336</t>
+  </si>
+  <si>
+    <t>272891824</t>
+  </si>
+  <si>
+    <t>-198918160</t>
+  </si>
+  <si>
+    <t>189071648</t>
+  </si>
+  <si>
+    <t>-104605232</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance3NoTranspose</t>
+  </si>
+  <si>
+    <t>-8361424</t>
+  </si>
+  <si>
+    <t>138834288</t>
+  </si>
+  <si>
+    <t>86299760</t>
+  </si>
+  <si>
+    <t>-87777680</t>
+  </si>
+  <si>
+    <t>-10178704</t>
+  </si>
+  <si>
+    <t>111440384</t>
+  </si>
+  <si>
+    <t>-175853312</t>
+  </si>
+  <si>
+    <t>-39575408</t>
+  </si>
+  <si>
+    <t>84158144</t>
+  </si>
+  <si>
+    <t>12871776</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance3WithHamming</t>
+  </si>
+  <si>
+    <t>343922784</t>
+  </si>
+  <si>
+    <t>-131701008</t>
+  </si>
+  <si>
+    <t>25483632</t>
+  </si>
+  <si>
+    <t>-236681472</t>
+  </si>
+  <si>
+    <t>262401184</t>
+  </si>
+  <si>
+    <t>-110839760</t>
+  </si>
+  <si>
+    <t>165959904</t>
+  </si>
+  <si>
+    <t>-39573248</t>
+  </si>
+  <si>
+    <t>-180052416</t>
+  </si>
+  <si>
+    <t>134548112</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance3WithTouzet</t>
+  </si>
+  <si>
+    <t>243242112</t>
+  </si>
+  <si>
+    <t>42340784</t>
+  </si>
+  <si>
+    <t>-161160384</t>
+  </si>
+  <si>
+    <t>207952480</t>
+  </si>
+  <si>
+    <t>-146535584</t>
+  </si>
+  <si>
+    <t>-217755696</t>
+  </si>
+  <si>
+    <t>354701280</t>
+  </si>
+  <si>
+    <t>-328956864</t>
+  </si>
+  <si>
+    <t>149195552</t>
+  </si>
+  <si>
+    <t>100922912</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance3WithTranspose</t>
+  </si>
+  <si>
+    <t>165811472</t>
+  </si>
+  <si>
+    <t>191260448</t>
+  </si>
+  <si>
+    <t>-117092080</t>
+  </si>
+  <si>
+    <t>-119227008</t>
+  </si>
+  <si>
+    <t>-110858320</t>
+  </si>
+  <si>
+    <t>264656</t>
+  </si>
+  <si>
+    <t>-29062112</t>
+  </si>
+  <si>
+    <t>2405568</t>
+  </si>
+  <si>
+    <t>163868976</t>
+  </si>
+  <si>
+    <t>153386688</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance4NoTranspose</t>
+  </si>
+  <si>
+    <t>329292000</t>
+  </si>
+  <si>
+    <t>-179966272</t>
+  </si>
+  <si>
+    <t>-167424032</t>
+  </si>
+  <si>
+    <t>350524128</t>
+  </si>
+  <si>
+    <t>-289102864</t>
+  </si>
+  <si>
+    <t>197413696</t>
+  </si>
+  <si>
+    <t>65312544</t>
+  </si>
+  <si>
+    <t>-108739264</t>
+  </si>
+  <si>
+    <t>12859232</t>
+  </si>
+  <si>
+    <t>-154875232</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance4WithHamming</t>
+  </si>
+  <si>
+    <t>235002336</t>
+  </si>
+  <si>
+    <t>107398672</t>
+  </si>
+  <si>
+    <t>-96185824</t>
+  </si>
+  <si>
+    <t>88377504</t>
+  </si>
+  <si>
+    <t>-123423728</t>
+  </si>
+  <si>
+    <t>-33253776</t>
+  </si>
+  <si>
+    <t>67398560</t>
+  </si>
+  <si>
+    <t>-255541648</t>
+  </si>
+  <si>
+    <t>65305664</t>
+  </si>
+  <si>
+    <t>-60529280</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance4WithTouzet</t>
+  </si>
+  <si>
+    <t>14847392</t>
+  </si>
+  <si>
+    <t>235282736</t>
+  </si>
+  <si>
+    <t>-234555168</t>
+  </si>
+  <si>
+    <t>117757856</t>
+  </si>
+  <si>
+    <t>-110815520</t>
+  </si>
+  <si>
+    <t>172260640</t>
+  </si>
+  <si>
+    <t>-230335568</t>
+  </si>
+  <si>
+    <t>142889248</t>
+  </si>
+  <si>
+    <t>113528016</t>
+  </si>
+  <si>
+    <t>-236687952</t>
+  </si>
+  <si>
+    <t>benchBuildDfaDistance4WithTranspose</t>
+  </si>
+  <si>
+    <t>138408176</t>
+  </si>
+  <si>
+    <t>17178304</t>
+  </si>
+  <si>
+    <t>46443008</t>
+  </si>
+  <si>
+    <t>52721136</t>
+  </si>
+  <si>
+    <t>10791584</t>
+  </si>
+  <si>
+    <t>-77268272</t>
+  </si>
+  <si>
+    <t>-89850928</t>
+  </si>
+  <si>
+    <t>-100391584</t>
+  </si>
+  <si>
+    <t>142929712</t>
+  </si>
+  <si>
+    <t>-133924544</t>
+  </si>
+  <si>
+    <t>Average Memory Used (bytes)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -225,248 +1238,271 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B6" s="0"/>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B7" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B8" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B10" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="C10" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="C11" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B12" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
       <c r="C12" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B13" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>25</v>
+      </c>
       <c r="C13" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>43</v>
@@ -475,28 +1511,3252 @@
         <v>44</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B14" s="0"/>
-      <c r="C14" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="G14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>11</v>
+      <c r="F15" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B51" s="0"/>
+      <c r="C51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B58" s="0"/>
+      <c r="C58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B65" s="0"/>
+      <c r="C65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B72" s="0"/>
+      <c r="C72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B79" s="0"/>
+      <c r="C79" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B86" s="0"/>
+      <c r="C86" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>-1710088.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>495291.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>3644660.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>4583896.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>5002020.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1.0558956E7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1.13902616E7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1.3803996E7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1.48672432E7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1.57972848E7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1.58153224E7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1.79982592E7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>2.01143712E7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>2.43013232E7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>2.57978504E7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>3.74942156E7</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Risultati/benchmark_results_bar_2_output.xlsx
+++ b/Testing/Risultati/benchmark_results_bar_2_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="433">
   <si>
     <t>Benchmark</t>
   </si>
@@ -49,10 +49,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>111977,580</t>
-  </si>
-  <si>
-    <t>1301,689</t>
+    <t>111155,929</t>
+  </si>
+  <si>
+    <t>2298,451</t>
   </si>
   <si>
     <t>ops/s</t>
@@ -61,10 +61,10 @@
     <t>gc.alloc.rate</t>
   </si>
   <si>
-    <t>5843,225</t>
-  </si>
-  <si>
-    <t>80,760</t>
+    <t>5795,513</t>
+  </si>
+  <si>
+    <t>116,234</t>
   </si>
   <si>
     <t>MB/sec</t>
@@ -73,10 +73,10 @@
     <t>gc.alloc.rate.norm</t>
   </si>
   <si>
-    <t>57534,178</t>
-  </si>
-  <si>
-    <t>0,185</t>
+    <t>57479,781</t>
+  </si>
+  <si>
+    <t>0,146</t>
   </si>
   <si>
     <t>B/op</t>
@@ -85,556 +85,700 @@
     <t>gc.churn.G1_Eden_Space</t>
   </si>
   <si>
-    <t>5849,912</t>
-  </si>
-  <si>
-    <t>97,419</t>
+    <t>5806,399</t>
+  </si>
+  <si>
+    <t>140,621</t>
   </si>
   <si>
     <t>gc.churn.G1_Eden_Space.norm</t>
   </si>
   <si>
-    <t>57599,909</t>
-  </si>
-  <si>
-    <t>217,112</t>
+    <t>57587,516</t>
+  </si>
+  <si>
+    <t>321,860</t>
   </si>
   <si>
     <t>gc.churn.G1_Survivor_Space</t>
   </si>
   <si>
+    <t>0,214</t>
+  </si>
+  <si>
+    <t>0,023</t>
+  </si>
+  <si>
+    <t>gc.churn.G1_Survivor_Space.norm</t>
+  </si>
+  <si>
+    <t>2,127</t>
+  </si>
+  <si>
+    <t>0,230</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithHamming</t>
+  </si>
+  <si>
+    <t>109898,986</t>
+  </si>
+  <si>
+    <t>2458,845</t>
+  </si>
+  <si>
+    <t>5737,913</t>
+  </si>
+  <si>
+    <t>126,051</t>
+  </si>
+  <si>
+    <t>57535,358</t>
+  </si>
+  <si>
+    <t>0,158</t>
+  </si>
+  <si>
+    <t>5740,591</t>
+  </si>
+  <si>
+    <t>115,549</t>
+  </si>
+  <si>
+    <t>57562,379</t>
+  </si>
+  <si>
+    <t>325,914</t>
+  </si>
+  <si>
+    <t>0,212</t>
+  </si>
+  <si>
+    <t>0,020</t>
+  </si>
+  <si>
+    <t>2,123</t>
+  </si>
+  <si>
+    <t>0,173</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTouzet</t>
+  </si>
+  <si>
+    <t>109372,883</t>
+  </si>
+  <si>
+    <t>2441,750</t>
+  </si>
+  <si>
+    <t>5709,249</t>
+  </si>
+  <si>
+    <t>129,184</t>
+  </si>
+  <si>
+    <t>57535,654</t>
+  </si>
+  <si>
+    <t>0,164</t>
+  </si>
+  <si>
+    <t>5717,310</t>
+  </si>
+  <si>
+    <t>131,104</t>
+  </si>
+  <si>
+    <t>57616,877</t>
+  </si>
+  <si>
+    <t>60,344</t>
+  </si>
+  <si>
+    <t>0,050</t>
+  </si>
+  <si>
+    <t>0,014</t>
+  </si>
+  <si>
+    <t>0,502</t>
+  </si>
+  <si>
+    <t>0,136</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTranspose</t>
+  </si>
+  <si>
+    <t>108971,744</t>
+  </si>
+  <si>
+    <t>3056,414</t>
+  </si>
+  <si>
+    <t>5687,469</t>
+  </si>
+  <si>
+    <t>162,503</t>
+  </si>
+  <si>
+    <t>57535,450</t>
+  </si>
+  <si>
+    <t>0,147</t>
+  </si>
+  <si>
+    <t>5688,575</t>
+  </si>
+  <si>
+    <t>158,655</t>
+  </si>
+  <si>
+    <t>57547,010</t>
+  </si>
+  <si>
+    <t>820,481</t>
+  </si>
+  <si>
+    <t>0,116</t>
+  </si>
+  <si>
+    <t>0,053</t>
+  </si>
+  <si>
+    <t>1,169</t>
+  </si>
+  <si>
+    <t>0,552</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance2NoTranspose</t>
+  </si>
+  <si>
+    <t>108535,634</t>
+  </si>
+  <si>
+    <t>2101,362</t>
+  </si>
+  <si>
+    <t>5667,668</t>
+  </si>
+  <si>
+    <t>111,062</t>
+  </si>
+  <si>
+    <t>57551,984</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>5676,179</t>
+  </si>
+  <si>
+    <t>107,034</t>
+  </si>
+  <si>
+    <t>57638,545</t>
+  </si>
+  <si>
+    <t>449,416</t>
+  </si>
+  <si>
+    <t>0,083</t>
+  </si>
+  <si>
+    <t>0,031</t>
+  </si>
+  <si>
+    <t>0,846</t>
+  </si>
+  <si>
+    <t>0,330</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance2WithHamming</t>
+  </si>
+  <si>
+    <t>109725,136</t>
+  </si>
+  <si>
+    <t>2630,495</t>
+  </si>
+  <si>
+    <t>5728,609</t>
+  </si>
+  <si>
+    <t>137,565</t>
+  </si>
+  <si>
+    <t>57551,310</t>
+  </si>
+  <si>
+    <t>0,115</t>
+  </si>
+  <si>
+    <t>5734,030</t>
+  </si>
+  <si>
+    <t>192,267</t>
+  </si>
+  <si>
+    <t>57605,283</t>
+  </si>
+  <si>
+    <t>873,103</t>
+  </si>
+  <si>
+    <t>0,184</t>
+  </si>
+  <si>
+    <t>0,026</t>
+  </si>
+  <si>
+    <t>1,845</t>
+  </si>
+  <si>
+    <t>0,284</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTouzet</t>
+  </si>
+  <si>
+    <t>109251,173</t>
+  </si>
+  <si>
+    <t>768,608</t>
+  </si>
+  <si>
+    <t>5706,478</t>
+  </si>
+  <si>
+    <t>37,238</t>
+  </si>
+  <si>
+    <t>57551,550</t>
+  </si>
+  <si>
+    <t>0,144</t>
+  </si>
+  <si>
+    <t>5717,495</t>
+  </si>
+  <si>
+    <t>87,309</t>
+  </si>
+  <si>
+    <t>57662,568</t>
+  </si>
+  <si>
+    <t>658,934</t>
+  </si>
+  <si>
+    <t>0,239</t>
+  </si>
+  <si>
+    <t>2,406</t>
+  </si>
+  <si>
+    <t>0,255</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTranspose</t>
+  </si>
+  <si>
+    <t>109838,271</t>
+  </si>
+  <si>
+    <t>2410,027</t>
+  </si>
+  <si>
+    <t>5733,962</t>
+  </si>
+  <si>
+    <t>126,874</t>
+  </si>
+  <si>
+    <t>57535,266</t>
+  </si>
+  <si>
+    <t>5742,155</t>
+  </si>
+  <si>
+    <t>169,949</t>
+  </si>
+  <si>
+    <t>57617,199</t>
+  </si>
+  <si>
+    <t>824,754</t>
+  </si>
+  <si>
+    <t>0,210</t>
+  </si>
+  <si>
+    <t>0,015</t>
+  </si>
+  <si>
+    <t>2,109</t>
+  </si>
+  <si>
+    <t>0,126</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance3NoTranspose</t>
+  </si>
+  <si>
+    <t>110516,716</t>
+  </si>
+  <si>
+    <t>560,135</t>
+  </si>
+  <si>
+    <t>5770,701</t>
+  </si>
+  <si>
+    <t>29,425</t>
+  </si>
+  <si>
+    <t>57551,736</t>
+  </si>
+  <si>
+    <t>0,101</t>
+  </si>
+  <si>
+    <t>5780,171</t>
+  </si>
+  <si>
+    <t>56,779</t>
+  </si>
+  <si>
+    <t>57646,145</t>
+  </si>
+  <si>
+    <t>397,359</t>
+  </si>
+  <si>
+    <t>0,234</t>
+  </si>
+  <si>
+    <t>0,018</t>
+  </si>
+  <si>
+    <t>2,331</t>
+  </si>
+  <si>
+    <t>0,180</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance3WithHamming</t>
+  </si>
+  <si>
+    <t>109398,097</t>
+  </si>
+  <si>
+    <t>1095,587</t>
+  </si>
+  <si>
+    <t>5713,342</t>
+  </si>
+  <si>
+    <t>55,107</t>
+  </si>
+  <si>
+    <t>57551,422</t>
+  </si>
+  <si>
+    <t>0,132</t>
+  </si>
+  <si>
+    <t>5723,206</t>
+  </si>
+  <si>
+    <t>92,036</t>
+  </si>
+  <si>
+    <t>57650,650</t>
+  </si>
+  <si>
+    <t>532,481</t>
+  </si>
+  <si>
     <t>0,162</t>
   </si>
   <si>
-    <t>0,038</t>
-  </si>
-  <si>
-    <t>gc.churn.G1_Survivor_Space.norm</t>
-  </si>
-  <si>
-    <t>1,598</t>
-  </si>
-  <si>
-    <t>0,366</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithHamming</t>
-  </si>
-  <si>
-    <t>112601,941</t>
-  </si>
-  <si>
-    <t>1597,108</t>
-  </si>
-  <si>
-    <t>5875,934</t>
-  </si>
-  <si>
-    <t>79,978</t>
-  </si>
-  <si>
-    <t>57534,087</t>
-  </si>
-  <si>
-    <t>0,112</t>
-  </si>
-  <si>
-    <t>5878,462</t>
-  </si>
-  <si>
-    <t>73,017</t>
-  </si>
-  <si>
-    <t>57559,051</t>
-  </si>
-  <si>
-    <t>592,536</t>
-  </si>
-  <si>
-    <t>0,171</t>
-  </si>
-  <si>
-    <t>0,024</t>
-  </si>
-  <si>
-    <t>1,675</t>
-  </si>
-  <si>
-    <t>0,246</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTouzet</t>
-  </si>
-  <si>
-    <t>112785,406</t>
-  </si>
-  <si>
-    <t>785,527</t>
-  </si>
-  <si>
-    <t>5883,576</t>
-  </si>
-  <si>
-    <t>44,600</t>
-  </si>
-  <si>
-    <t>57534,042</t>
-  </si>
-  <si>
-    <t>0,167</t>
-  </si>
-  <si>
-    <t>5886,809</t>
-  </si>
-  <si>
-    <t>129,946</t>
-  </si>
-  <si>
-    <t>57565,358</t>
-  </si>
-  <si>
-    <t>885,315</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>0,020</t>
-  </si>
-  <si>
-    <t>1,789</t>
-  </si>
-  <si>
-    <t>0,181</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance1WithTranspose</t>
-  </si>
-  <si>
-    <t>112633,009</t>
-  </si>
-  <si>
-    <t>1909,665</t>
-  </si>
-  <si>
-    <t>5874,978</t>
-  </si>
-  <si>
-    <t>95,515</t>
-  </si>
-  <si>
-    <t>57534,024</t>
-  </si>
-  <si>
-    <t>0,142</t>
-  </si>
-  <si>
-    <t>5885,568</t>
-  </si>
-  <si>
-    <t>134,237</t>
-  </si>
-  <si>
-    <t>57637,482</t>
-  </si>
-  <si>
-    <t>572,666</t>
-  </si>
-  <si>
-    <t>0,177</t>
+    <t>0,029</t>
+  </si>
+  <si>
+    <t>1,633</t>
+  </si>
+  <si>
+    <t>0,306</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTouzet</t>
+  </si>
+  <si>
+    <t>110440,069</t>
+  </si>
+  <si>
+    <t>2009,026</t>
+  </si>
+  <si>
+    <t>5766,440</t>
+  </si>
+  <si>
+    <t>103,587</t>
+  </si>
+  <si>
+    <t>57551,344</t>
+  </si>
+  <si>
+    <t>0,107</t>
+  </si>
+  <si>
+    <t>5774,654</t>
+  </si>
+  <si>
+    <t>173,368</t>
+  </si>
+  <si>
+    <t>57632,868</t>
+  </si>
+  <si>
+    <t>973,644</t>
+  </si>
+  <si>
+    <t>0,225</t>
+  </si>
+  <si>
+    <t>0,021</t>
+  </si>
+  <si>
+    <t>2,249</t>
+  </si>
+  <si>
+    <t>0,205</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTranspose</t>
+  </si>
+  <si>
+    <t>109084,368</t>
+  </si>
+  <si>
+    <t>1331,024</t>
+  </si>
+  <si>
+    <t>5691,891</t>
+  </si>
+  <si>
+    <t>68,120</t>
+  </si>
+  <si>
+    <t>57519,289</t>
+  </si>
+  <si>
+    <t>5693,977</t>
+  </si>
+  <si>
+    <t>70,703</t>
+  </si>
+  <si>
+    <t>57540,399</t>
+  </si>
+  <si>
+    <t>329,212</t>
+  </si>
+  <si>
+    <t>0,179</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>1,812</t>
+  </si>
+  <si>
+    <t>0,411</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance4NoTranspose</t>
+  </si>
+  <si>
+    <t>109419,100</t>
+  </si>
+  <si>
+    <t>1819,886</t>
+  </si>
+  <si>
+    <t>5713,652</t>
+  </si>
+  <si>
+    <t>93,538</t>
+  </si>
+  <si>
+    <t>57551,460</t>
+  </si>
+  <si>
+    <t>0,098</t>
+  </si>
+  <si>
+    <t>5722,733</t>
+  </si>
+  <si>
+    <t>97,813</t>
+  </si>
+  <si>
+    <t>57643,010</t>
+  </si>
+  <si>
+    <t>498,517</t>
+  </si>
+  <si>
+    <t>0,052</t>
   </si>
   <si>
     <t>0,016</t>
   </si>
   <si>
-    <t>1,738</t>
-  </si>
-  <si>
-    <t>0,157</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance2NoTranspose</t>
-  </si>
-  <si>
-    <t>113153,813</t>
-  </si>
-  <si>
-    <t>1629,454</t>
-  </si>
-  <si>
-    <t>5902,018</t>
-  </si>
-  <si>
-    <t>89,127</t>
-  </si>
-  <si>
-    <t>57533,968</t>
-  </si>
-  <si>
-    <t>0,191</t>
-  </si>
-  <si>
-    <t>5907,499</t>
-  </si>
-  <si>
-    <t>105,208</t>
-  </si>
-  <si>
-    <t>57587,338</t>
-  </si>
-  <si>
-    <t>414,798</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>0,019</t>
-  </si>
-  <si>
-    <t>1,657</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTouzet</t>
-  </si>
-  <si>
-    <t>113052,420</t>
-  </si>
-  <si>
-    <t>1022,262</t>
-  </si>
-  <si>
-    <t>5898,981</t>
-  </si>
-  <si>
-    <t>59,968</t>
-  </si>
-  <si>
-    <t>57534,051</t>
-  </si>
-  <si>
-    <t>0,175</t>
-  </si>
-  <si>
-    <t>5910,031</t>
-  </si>
-  <si>
-    <t>18,788</t>
-  </si>
-  <si>
-    <t>57642,109</t>
-  </si>
-  <si>
-    <t>548,156</t>
-  </si>
-  <si>
-    <t>0,120</t>
-  </si>
-  <si>
-    <t>0,017</t>
-  </si>
-  <si>
-    <t>1,172</t>
-  </si>
-  <si>
-    <t>0,164</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance2WithTranspose</t>
-  </si>
-  <si>
-    <t>112508,362</t>
-  </si>
-  <si>
-    <t>963,948</t>
-  </si>
-  <si>
-    <t>5866,395</t>
-  </si>
-  <si>
-    <t>54,031</t>
-  </si>
-  <si>
-    <t>57534,109</t>
-  </si>
-  <si>
-    <t>0,124</t>
-  </si>
-  <si>
-    <t>5876,165</t>
-  </si>
-  <si>
-    <t>91,537</t>
-  </si>
-  <si>
-    <t>57630,088</t>
-  </si>
-  <si>
-    <t>931,259</t>
-  </si>
-  <si>
-    <t>0,063</t>
-  </si>
-  <si>
-    <t>0,029</t>
-  </si>
-  <si>
-    <t>0,614</t>
-  </si>
-  <si>
-    <t>0,291</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance3NoTranspose</t>
-  </si>
-  <si>
-    <t>111607,033</t>
-  </si>
-  <si>
-    <t>1303,939</t>
-  </si>
-  <si>
-    <t>5820,243</t>
-  </si>
-  <si>
-    <t>69,146</t>
-  </si>
-  <si>
-    <t>57518,094</t>
-  </si>
-  <si>
-    <t>0,151</t>
-  </si>
-  <si>
-    <t>5835,398</t>
-  </si>
-  <si>
-    <t>129,291</t>
-  </si>
-  <si>
-    <t>57667,617</t>
-  </si>
-  <si>
-    <t>805,040</t>
+    <t>0,519</t>
+  </si>
+  <si>
+    <t>0,159</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance4WithHamming</t>
+  </si>
+  <si>
+    <t>48884,410</t>
+  </si>
+  <si>
+    <t>2615,941</t>
+  </si>
+  <si>
+    <t>2550,471</t>
+  </si>
+  <si>
+    <t>137,795</t>
+  </si>
+  <si>
+    <t>57556,077</t>
+  </si>
+  <si>
+    <t>0,434</t>
+  </si>
+  <si>
+    <t>2558,437</t>
+  </si>
+  <si>
+    <t>133,818</t>
+  </si>
+  <si>
+    <t>57736,623</t>
+  </si>
+  <si>
+    <t>1045,163</t>
+  </si>
+  <si>
+    <t>0,103</t>
+  </si>
+  <si>
+    <t>0,007</t>
+  </si>
+  <si>
+    <t>2,333</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTouzet</t>
+  </si>
+  <si>
+    <t>49330,340</t>
+  </si>
+  <si>
+    <t>1110,459</t>
+  </si>
+  <si>
+    <t>2573,690</t>
+  </si>
+  <si>
+    <t>58,288</t>
+  </si>
+  <si>
+    <t>57541,137</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>2577,154</t>
+  </si>
+  <si>
+    <t>76,015</t>
+  </si>
+  <si>
+    <t>57619,249</t>
+  </si>
+  <si>
+    <t>1618,709</t>
+  </si>
+  <si>
+    <t>0,075</t>
+  </si>
+  <si>
+    <t>0,010</t>
+  </si>
+  <si>
+    <t>1,672</t>
+  </si>
+  <si>
+    <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTranspose</t>
+  </si>
+  <si>
+    <t>49243,048</t>
+  </si>
+  <si>
+    <t>3586,494</t>
+  </si>
+  <si>
+    <t>2562,937</t>
+  </si>
+  <si>
+    <t>185,435</t>
+  </si>
+  <si>
+    <t>57412,779</t>
+  </si>
+  <si>
+    <t>0,652</t>
+  </si>
+  <si>
+    <t>2570,590</t>
+  </si>
+  <si>
+    <t>209,923</t>
+  </si>
+  <si>
+    <t>57582,302</t>
+  </si>
+  <si>
+    <t>876,516</t>
   </si>
   <si>
     <t>0,121</t>
   </si>
   <si>
-    <t>0,046</t>
-  </si>
-  <si>
-    <t>1,198</t>
-  </si>
-  <si>
-    <t>0,456</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTouzet</t>
-  </si>
-  <si>
-    <t>111997,168</t>
-  </si>
-  <si>
-    <t>1417,558</t>
-  </si>
-  <si>
-    <t>5843,679</t>
-  </si>
-  <si>
-    <t>83,396</t>
-  </si>
-  <si>
-    <t>57534,221</t>
-  </si>
-  <si>
-    <t>0,140</t>
-  </si>
-  <si>
-    <t>5853,524</t>
-  </si>
-  <si>
-    <t>80,869</t>
-  </si>
-  <si>
-    <t>57631,305</t>
-  </si>
-  <si>
-    <t>544,373</t>
-  </si>
-  <si>
-    <t>0,064</t>
-  </si>
-  <si>
-    <t>0,043</t>
-  </si>
-  <si>
-    <t>0,625</t>
-  </si>
-  <si>
-    <t>0,429</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance3WithTranspose</t>
-  </si>
-  <si>
-    <t>112473,054</t>
-  </si>
-  <si>
-    <t>1833,761</t>
-  </si>
-  <si>
-    <t>5865,669</t>
-  </si>
-  <si>
-    <t>100,408</t>
-  </si>
-  <si>
-    <t>57534,111</t>
-  </si>
-  <si>
-    <t>5878,356</t>
-  </si>
-  <si>
-    <t>87,130</t>
-  </si>
-  <si>
-    <t>57658,861</t>
-  </si>
-  <si>
-    <t>649,869</t>
-  </si>
-  <si>
-    <t>0,032</t>
-  </si>
-  <si>
-    <t>0,623</t>
-  </si>
-  <si>
-    <t>0,316</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance4NoTranspose</t>
-  </si>
-  <si>
-    <t>112117,244</t>
-  </si>
-  <si>
-    <t>1611,773</t>
-  </si>
-  <si>
-    <t>5848,778</t>
-  </si>
-  <si>
-    <t>85,183</t>
-  </si>
-  <si>
-    <t>57534,278</t>
-  </si>
-  <si>
-    <t>5853,944</t>
-  </si>
-  <si>
-    <t>123,121</t>
-  </si>
-  <si>
-    <t>57584,950</t>
-  </si>
-  <si>
-    <t>663,478</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>1,868</t>
-  </si>
-  <si>
-    <t>0,268</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTouzet</t>
-  </si>
-  <si>
-    <t>112342,365</t>
-  </si>
-  <si>
-    <t>590,047</t>
-  </si>
-  <si>
-    <t>5858,847</t>
-  </si>
-  <si>
-    <t>27,930</t>
-  </si>
-  <si>
-    <t>57534,031</t>
-  </si>
-  <si>
-    <t>0,176</t>
-  </si>
-  <si>
-    <t>5867,185</t>
-  </si>
-  <si>
-    <t>107,992</t>
-  </si>
-  <si>
-    <t>57615,766</t>
-  </si>
-  <si>
-    <t>865,465</t>
-  </si>
-  <si>
-    <t>0,174</t>
-  </si>
-  <si>
-    <t>1,713</t>
-  </si>
-  <si>
-    <t>0,178</t>
-  </si>
-  <si>
-    <t>LevenshteinBenchmark.benchBuildDfaDistance4WithTranspose</t>
-  </si>
-  <si>
-    <t>112766,148</t>
-  </si>
-  <si>
-    <t>1307,207</t>
-  </si>
-  <si>
-    <t>5883,053</t>
-  </si>
-  <si>
-    <t>65,599</t>
-  </si>
-  <si>
-    <t>57534,043</t>
-  </si>
-  <si>
-    <t>0,168</t>
-  </si>
-  <si>
-    <t>5886,696</t>
-  </si>
-  <si>
-    <t>77,082</t>
-  </si>
-  <si>
-    <t>57569,672</t>
-  </si>
-  <si>
-    <t>396,834</t>
-  </si>
-  <si>
-    <t>0,015</t>
-  </si>
-  <si>
-    <t>1,805</t>
-  </si>
-  <si>
-    <t>0,134</t>
+    <t>0,011</t>
+  </si>
+  <si>
+    <t>2,721</t>
+  </si>
+  <si>
+    <t>0,194</t>
   </si>
   <si>
     <t>Memory Used (bytes)</t>
@@ -1213,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2031,7 +2175,7 @@
         <v>92</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="0">
         <v>21</v>
@@ -2039,7 +2183,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" t="s" s="0">
@@ -2049,10 +2193,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>13</v>
@@ -2060,7 +2204,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>14</v>
@@ -2072,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>17</v>
@@ -2083,7 +2227,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>18</v>
@@ -2095,10 +2239,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>21</v>
@@ -2106,7 +2250,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>22</v>
@@ -2118,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s" s="0">
         <v>17</v>
@@ -2129,7 +2273,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>25</v>
@@ -2141,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>21</v>
@@ -2152,7 +2296,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>28</v>
@@ -2164,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>17</v>
@@ -2175,7 +2319,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>31</v>
@@ -2187,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>21</v>
@@ -2198,7 +2342,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" t="s" s="0">
@@ -2208,10 +2352,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G44" t="s" s="0">
         <v>13</v>
@@ -2219,7 +2363,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>14</v>
@@ -2231,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s" s="0">
         <v>17</v>
@@ -2242,7 +2386,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>18</v>
@@ -2254,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s" s="0">
         <v>21</v>
@@ -2265,7 +2409,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>22</v>
@@ -2277,10 +2421,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>17</v>
@@ -2288,7 +2432,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>25</v>
@@ -2300,10 +2444,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s" s="0">
         <v>21</v>
@@ -2311,7 +2455,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>28</v>
@@ -2323,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>17</v>
@@ -2334,7 +2478,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>31</v>
@@ -2416,7 +2560,7 @@
         <v>128</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="0">
         <v>21</v>
@@ -2436,10 +2580,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s" s="0">
         <v>130</v>
-      </c>
-      <c r="F54" t="s" s="0">
-        <v>131</v>
       </c>
       <c r="G54" t="s" s="0">
         <v>17</v>
@@ -2459,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s" s="0">
         <v>132</v>
-      </c>
-      <c r="F55" t="s" s="0">
-        <v>133</v>
       </c>
       <c r="G55" t="s" s="0">
         <v>21</v>
@@ -2482,10 +2626,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s" s="0">
         <v>134</v>
-      </c>
-      <c r="F56" t="s" s="0">
-        <v>135</v>
       </c>
       <c r="G56" t="s" s="0">
         <v>17</v>
@@ -2505,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s" s="0">
         <v>136</v>
-      </c>
-      <c r="F57" t="s" s="0">
-        <v>137</v>
       </c>
       <c r="G57" t="s" s="0">
         <v>21</v>
@@ -2516,7 +2660,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" t="s" s="0">
@@ -2526,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s" s="0">
         <v>139</v>
-      </c>
-      <c r="F58" t="s" s="0">
-        <v>140</v>
       </c>
       <c r="G58" t="s" s="0">
         <v>13</v>
@@ -2537,7 +2681,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>14</v>
@@ -2549,10 +2693,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F59" t="s" s="0">
         <v>141</v>
-      </c>
-      <c r="F59" t="s" s="0">
-        <v>142</v>
       </c>
       <c r="G59" t="s" s="0">
         <v>17</v>
@@ -2560,7 +2704,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>18</v>
@@ -2572,10 +2716,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="F60" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="G60" t="s" s="0">
         <v>21</v>
@@ -2583,7 +2727,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>22</v>
@@ -2595,10 +2739,10 @@
         <v>10</v>
       </c>
       <c r="E61" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="F61" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>146</v>
       </c>
       <c r="G61" t="s" s="0">
         <v>17</v>
@@ -2606,7 +2750,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>25</v>
@@ -2618,10 +2762,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s" s="0">
         <v>147</v>
-      </c>
-      <c r="F62" t="s" s="0">
-        <v>148</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>21</v>
@@ -2629,7 +2773,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>28</v>
@@ -2641,10 +2785,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="F63" t="s" s="0">
-        <v>150</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>17</v>
@@ -2652,7 +2796,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>31</v>
@@ -2664,10 +2808,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F64" t="s" s="0">
         <v>151</v>
-      </c>
-      <c r="F64" t="s" s="0">
-        <v>152</v>
       </c>
       <c r="G64" t="s" s="0">
         <v>21</v>
@@ -2675,7 +2819,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="0"/>
       <c r="C65" t="s" s="0">
@@ -2685,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="F65" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="F65" t="s" s="0">
-        <v>155</v>
       </c>
       <c r="G65" t="s" s="0">
         <v>13</v>
@@ -2696,7 +2840,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>14</v>
@@ -2708,10 +2852,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F66" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>17</v>
@@ -2719,7 +2863,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>18</v>
@@ -2731,10 +2875,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F67" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="F67" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>21</v>
@@ -2742,7 +2886,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>22</v>
@@ -2765,7 +2909,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>25</v>
@@ -2788,7 +2932,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>28</v>
@@ -2800,10 +2944,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G70" t="s" s="0">
         <v>17</v>
@@ -2811,7 +2955,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>31</v>
@@ -2823,10 +2967,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G71" t="s" s="0">
         <v>21</v>
@@ -2834,7 +2978,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B72" s="0"/>
       <c r="C72" t="s" s="0">
@@ -2844,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>13</v>
@@ -2855,7 +2999,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>14</v>
@@ -2867,10 +3011,10 @@
         <v>10</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s" s="0">
         <v>17</v>
@@ -2878,7 +3022,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>18</v>
@@ -2890,10 +3034,10 @@
         <v>10</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s" s="0">
         <v>21</v>
@@ -2901,7 +3045,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>22</v>
@@ -2913,10 +3057,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>17</v>
@@ -2924,7 +3068,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>25</v>
@@ -2936,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G76" t="s" s="0">
         <v>21</v>
@@ -2947,7 +3091,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>28</v>
@@ -2959,10 +3103,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="G77" t="s" s="0">
         <v>17</v>
@@ -2970,7 +3114,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>31</v>
@@ -2982,10 +3126,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G78" t="s" s="0">
         <v>21</v>
@@ -2993,7 +3137,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B79" s="0"/>
       <c r="C79" t="s" s="0">
@@ -3003,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>13</v>
@@ -3014,7 +3158,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>14</v>
@@ -3026,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G80" t="s" s="0">
         <v>17</v>
@@ -3037,7 +3181,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>18</v>
@@ -3049,10 +3193,10 @@
         <v>10</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s" s="0">
         <v>21</v>
@@ -3060,7 +3204,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>22</v>
@@ -3072,10 +3216,10 @@
         <v>10</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>17</v>
@@ -3083,7 +3227,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>25</v>
@@ -3095,10 +3239,10 @@
         <v>10</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G83" t="s" s="0">
         <v>21</v>
@@ -3106,7 +3250,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>28</v>
@@ -3118,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F84" t="s" s="0">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="G84" t="s" s="0">
         <v>17</v>
@@ -3129,7 +3273,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>31</v>
@@ -3141,10 +3285,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G85" t="s" s="0">
         <v>21</v>
@@ -3152,7 +3296,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B86" s="0"/>
       <c r="C86" t="s" s="0">
@@ -3162,10 +3306,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>13</v>
@@ -3173,7 +3317,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>14</v>
@@ -3185,10 +3329,10 @@
         <v>10</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s" s="0">
         <v>17</v>
@@ -3196,7 +3340,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>18</v>
@@ -3208,10 +3352,10 @@
         <v>10</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>21</v>
@@ -3219,7 +3363,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>22</v>
@@ -3231,10 +3375,10 @@
         <v>10</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G89" t="s" s="0">
         <v>17</v>
@@ -3242,7 +3386,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>25</v>
@@ -3254,10 +3398,10 @@
         <v>10</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G90" t="s" s="0">
         <v>21</v>
@@ -3265,7 +3409,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>28</v>
@@ -3277,10 +3421,10 @@
         <v>10</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G91" t="s" s="0">
         <v>17</v>
@@ -3288,7 +3432,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>31</v>
@@ -3300,12 +3444,489 @@
         <v>10</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G92" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B93" s="0"/>
+      <c r="C93" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B100" s="0"/>
+      <c r="C100" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B107" s="0"/>
+      <c r="C107" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="G113" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -3327,1287 +3948,1287 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>212</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>220</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>222</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>229</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>231</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>237</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>242</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>243</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>249</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>250</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>251</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>260</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>262</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>267</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>270</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>271</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>273</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>276</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>278</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>279</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>281</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>282</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>288</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>290</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>291</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>292</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>294</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>297</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>300</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>302</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>303</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>306</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>308</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>309</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>311</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>313</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>315</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>316</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>317</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>319</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>320</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>321</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>322</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>323</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>324</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>325</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>326</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>327</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>330</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>335</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>341</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>343</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>344</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>345</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>348</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>349</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>350</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>352</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>357</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>358</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>359</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>360</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>366</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>368</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>370</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>371</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>372</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>378</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>379</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>380</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>381</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>382</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>383</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4628,12 +5249,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>-1710088.8</v>
@@ -4641,7 +5262,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>495291.2</v>
@@ -4649,7 +5270,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>3644660.0</v>
@@ -4657,7 +5278,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4583896.0</v>
@@ -4665,7 +5286,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>5002020.0</v>
@@ -4673,7 +5294,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>1.0558956E7</v>
@@ -4681,7 +5302,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>1.13902616E7</v>
@@ -4689,7 +5310,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>1.3803996E7</v>
@@ -4697,7 +5318,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>1.48672432E7</v>
@@ -4705,7 +5326,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>1.57972848E7</v>
@@ -4713,7 +5334,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>1.58153224E7</v>
@@ -4721,7 +5342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>1.79982592E7</v>
@@ -4729,7 +5350,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>2.01143712E7</v>
@@ -4737,7 +5358,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>2.43013232E7</v>
@@ -4745,7 +5366,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>2.57978504E7</v>
@@ -4753,7 +5374,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>3.74942156E7</v>

--- a/Testing/Risultati/benchmark_results_bar_2_output.xlsx
+++ b/Testing/Risultati/benchmark_results_bar_2_output.xlsx
@@ -7,8 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Benchmark Data" r:id="rId3" sheetId="1"/>
-    <sheet name="Memory Usage Data" r:id="rId4" sheetId="2"/>
-    <sheet name="Average Memory Usage" r:id="rId6" sheetId="3"/>
+    <sheet name="Average Memory Usage" r:id="rId6" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -1329,12 +1328,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1349,8 +1368,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1362,6 +1383,10 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="57.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.96875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -1387,23 +1412,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="B2" s="2"/>
+      <c r="C2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s" s="2">
         <v>13</v>
       </c>
     </row>
@@ -3454,23 +3479,23 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="0">
+      <c r="A93" t="s" s="1">
         <v>211</v>
       </c>
-      <c r="B93" s="0"/>
-      <c r="C93" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s" s="0">
+      <c r="B93" s="1"/>
+      <c r="C93" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s" s="1">
         <v>212</v>
       </c>
-      <c r="F93" t="s" s="0">
+      <c r="F93" t="s" s="1">
         <v>213</v>
       </c>
-      <c r="G93" t="s" s="0">
+      <c r="G93" t="s" s="1">
         <v>13</v>
       </c>
     </row>
@@ -3498,25 +3523,25 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="0">
+      <c r="A95" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B95" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C95" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s" s="0">
+      <c r="C95" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="G95" t="s" s="0">
+      <c r="G95" t="s" s="2">
         <v>21</v>
       </c>
     </row>
@@ -3816,25 +3841,25 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="0">
+      <c r="A109" t="s" s="1">
         <v>240</v>
       </c>
-      <c r="B109" t="s" s="0">
+      <c r="B109" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="C109" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s" s="0">
+      <c r="C109" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s" s="1">
         <v>245</v>
       </c>
-      <c r="F109" t="s" s="0">
+      <c r="F109" t="s" s="1">
         <v>246</v>
       </c>
-      <c r="G109" t="s" s="0">
+      <c r="G109" t="s" s="1">
         <v>21</v>
       </c>
     </row>
@@ -3936,1307 +3961,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B78" t="s" s="0">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B79" t="s" s="0">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B81" t="s" s="0">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B82" t="s" s="0">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B83" t="s" s="0">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B88" t="s" s="0">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B89" t="s" s="0">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B90" t="s" s="0">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B117" t="s" s="0">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B118" t="s" s="0">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B120" t="s" s="0">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B123" t="s" s="0">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B124" t="s" s="0">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B126" t="s" s="0">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B127" t="s" s="0">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B128" t="s" s="0">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B132" t="s" s="0">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B133" t="s" s="0">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B134" t="s" s="0">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B135" t="s" s="0">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B136" t="s" s="0">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B137" t="s" s="0">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B138" t="s" s="0">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B139" t="s" s="0">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B140" t="s" s="0">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B141" t="s" s="0">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B142" t="s" s="0">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B143" t="s" s="0">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B144" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B145" t="s" s="0">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B146" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B147" t="s" s="0">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B148" t="s" s="0">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B149" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B150" t="s" s="0">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B151" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B152" t="s" s="0">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B153" t="s" s="0">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B154" t="s" s="0">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B155" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B156" t="s" s="0">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B157" t="s" s="0">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B158" t="s" s="0">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B159" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B160" t="s" s="0">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B161" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B17"/>
   <sheetViews>

--- a/Testing/Risultati/benchmark_results_bar_2_output.xlsx
+++ b/Testing/Risultati/benchmark_results_bar_2_output.xlsx
@@ -3967,6 +3967,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.46875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.19921875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
